--- a/src/test/resources/right-to-left.xlsx
+++ b/src/test/resources/right-to-left.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD94E161-CE26-4218-A499-295BA8A50C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30DC5FC1-0051-47C4-97EF-59EBAD72B057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>text</t>
   </si>
@@ -71,10 +71,16 @@
     <t>cell with comment</t>
   </si>
   <si>
+    <t>Hebrew and Arabic</t>
+  </si>
+  <si>
     <t>نص</t>
   </si>
   <si>
     <t>text with comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> עִבְרִית and اَلْعَرَبِيَّةُ</t>
   </si>
 </sst>
 </file>
@@ -458,9 +464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -482,6 +490,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -490,10 +503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795085D9-15A0-4768-BC9B-508D693AEA89}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,7 +516,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -513,7 +526,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
